--- a/2019_sell/20191224.xlsx
+++ b/2019_sell/20191224.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_sell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4586E891-C425-4B1D-8018-5F318989610E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0A7540-53FF-49E8-81F7-77AFB1A06943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="2565" windowWidth="16200" windowHeight="11880" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,226 @@
   </si>
   <si>
     <t>萨弗隆铁锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸尸体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启示项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾斯卡达尔右爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕裤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固之力勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅击戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶某某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师肩膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地核肩膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史密斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗头膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤红震荡者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言肩膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Richard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地核护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳里奥衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真龙护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰项圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙血斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨龙腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叨逼叨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分红达标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽风暴帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁锢戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄小喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糯米饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溺水的鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A401816-C903-4DC8-A8BA-32AED1B1A46C}">
   <dimension ref="A3:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,9 +927,15 @@
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
@@ -728,25 +954,37 @@
       </c>
       <c r="Q4">
         <f>INT(M7)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6">
+        <v>200</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="L5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="7">
         <f>SUM(C4:C11)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,7 +994,7 @@
       </c>
       <c r="Q5">
         <f>O5*Q$4</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
         <v>20</v>
@@ -764,13 +1002,25 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="6">
+        <v>200</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="L6" s="8" t="s">
         <v>4</v>
@@ -786,7 +1036,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ref="Q6:Q13" si="0">O6*Q$4</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="R6" t="s">
         <v>20</v>
@@ -794,9 +1044,15 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2">
+        <v>300</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="6"/>
       <c r="H7" s="4"/>
@@ -807,7 +1063,7 @@
       </c>
       <c r="M7" s="7">
         <f>(M5-M4)/M6</f>
-        <v>0</v>
+        <v>57.142857142857146</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -817,7 +1073,7 @@
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
         <v>20</v>
@@ -825,8 +1081,12 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="6"/>
@@ -841,7 +1101,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="R8" t="s">
         <v>20</v>
@@ -849,9 +1109,15 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -865,7 +1131,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="R9" t="s">
         <v>20</v>
@@ -889,7 +1155,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="R10" t="s">
         <v>20</v>
@@ -913,7 +1179,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="R11" t="s">
         <v>20</v>
@@ -932,7 +1198,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="R12" t="s">
         <v>20</v>
@@ -951,7 +1217,7 @@
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="R13" t="s">
         <v>20</v>
@@ -961,9 +1227,15 @@
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
+        <v>398</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -974,7 +1246,7 @@
       </c>
       <c r="M14" s="7">
         <f>SUM(C14:C99) + SUM(H:H)</f>
-        <v>1200</v>
+        <v>10318</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -996,9 +1268,15 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4">
+        <v>350</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1007,9 +1285,15 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>750</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1029,9 +1313,15 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <v>200</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1040,9 +1330,15 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4">
+        <v>200</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1051,14 +1347,26 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4">
+        <v>150</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
+      <c r="L21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="1">
+        <v>11200</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
@@ -1073,8 +1381,12 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
@@ -1086,14 +1398,20 @@
       </c>
       <c r="M23" s="7">
         <f>M14</f>
-        <v>1200</v>
+        <v>10318</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4">
+        <v>650</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1104,14 +1422,20 @@
       </c>
       <c r="Q24">
         <f>INT(M38)</f>
-        <v>30</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1125,7 +1449,7 @@
       </c>
       <c r="Q25">
         <f>Q$24*O25</f>
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="R25" t="s">
         <v>20</v>
@@ -1149,7 +1473,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ref="Q26:Q33" si="1">Q$24*O26</f>
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="R26" t="s">
         <v>20</v>
@@ -1157,9 +1481,15 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4">
+        <v>200</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1173,7 +1503,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>771</v>
       </c>
       <c r="R27" t="s">
         <v>20</v>
@@ -1181,8 +1511,12 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="G28" s="4"/>
@@ -1192,7 +1526,9 @@
       <c r="L28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1">
+        <v>70</v>
+      </c>
       <c r="O28">
         <v>4</v>
       </c>
@@ -1201,7 +1537,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>1028</v>
       </c>
       <c r="R28" t="s">
         <v>20</v>
@@ -1209,9 +1545,15 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4">
+        <v>600</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1231,7 +1573,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>1285</v>
       </c>
       <c r="R29" t="s">
         <v>20</v>
@@ -1252,7 +1594,7 @@
       </c>
       <c r="M30" s="7">
         <f>M23*0.02</f>
-        <v>24</v>
+        <v>206.36</v>
       </c>
       <c r="O30">
         <v>6</v>
@@ -1262,7 +1604,7 @@
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>1542</v>
       </c>
       <c r="R30" t="s">
         <v>20</v>
@@ -1270,9 +1612,15 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4">
+        <v>200</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1282,7 +1630,7 @@
         <v>17</v>
       </c>
       <c r="M31" s="7">
-        <f>IF(M23&gt;=10000, M23*0.03, 0)</f>
+        <f>IF(M23&gt;=M21, M23*0.03, 0)</f>
         <v>0</v>
       </c>
       <c r="O31">
@@ -1293,7 +1641,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>1799</v>
       </c>
       <c r="R31" t="s">
         <v>20</v>
@@ -1301,9 +1649,15 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4">
+        <v>200</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1317,7 +1671,7 @@
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>2056</v>
       </c>
       <c r="R32" t="s">
         <v>20</v>
@@ -1341,7 +1695,7 @@
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>2313</v>
       </c>
       <c r="R33" t="s">
         <v>20</v>
@@ -1349,9 +1703,15 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="4">
+        <v>200</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -1360,9 +1720,15 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="4">
+        <v>200</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1382,9 +1748,15 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="4">
+        <v>200</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1395,14 +1767,20 @@
       </c>
       <c r="M37" s="7">
         <f>M23-SUM(M28:M31)</f>
-        <v>1176</v>
+        <v>10041.64</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="4">
+        <v>700</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1413,7 +1791,7 @@
       </c>
       <c r="M38" s="7">
         <f>M37/M15</f>
-        <v>30.153846153846153</v>
+        <v>257.47794871794872</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -1429,9 +1807,15 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="4">
+        <v>200</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1440,7 +1824,9 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1453,14 +1839,20 @@
       </c>
       <c r="Q41">
         <f>INT(M49)</f>
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="4">
+        <v>200</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1474,7 +1866,7 @@
       </c>
       <c r="Q42">
         <f>Q$41*O42</f>
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="R42" t="s">
         <v>20</v>
@@ -1498,7 +1890,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43:Q50" si="2">Q$41*O43</f>
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="R43" t="s">
         <v>20</v>
@@ -1506,10 +1898,18 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="4">
+        <v>-1</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -1522,7 +1922,7 @@
       </c>
       <c r="Q44">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="R44" t="s">
         <v>20</v>
@@ -1530,9 +1930,15 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="4">
+        <v>500</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -1546,7 +1952,7 @@
       </c>
       <c r="Q45">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="R45" t="s">
         <v>20</v>
@@ -1554,9 +1960,15 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="4">
+        <v>200</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -1570,7 +1982,7 @@
       </c>
       <c r="Q46">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="R46" t="s">
         <v>20</v>
@@ -1594,7 +2006,7 @@
       </c>
       <c r="Q47">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="R47" t="s">
         <v>20</v>
@@ -1602,10 +2014,18 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-10</v>
+      </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -1624,7 +2044,7 @@
       </c>
       <c r="Q48">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="R48" t="s">
         <v>20</v>
@@ -1632,9 +2052,15 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="4">
+        <v>200</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -1645,7 +2071,7 @@
       </c>
       <c r="M49" s="7">
         <f>M30/M48</f>
-        <v>6</v>
+        <v>51.59</v>
       </c>
       <c r="O49">
         <v>8</v>
@@ -1655,7 +2081,7 @@
       </c>
       <c r="Q49">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="R49" t="s">
         <v>20</v>
@@ -1663,9 +2089,15 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="4">
+        <v>200</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -1679,7 +2111,7 @@
       </c>
       <c r="Q50">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>459</v>
       </c>
       <c r="R50" t="s">
         <v>20</v>
@@ -1687,8 +2119,12 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="G51" s="4"/>
